--- a/RC159_5.1.xlsx
+++ b/RC159_5.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ron.Collins\Documents\Microsoft Excel\research data\RC 159\RC159-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EF6DDE0-38C2-4C5D-A4FF-E8106306B52E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2E9DAA-81BF-454B-81A4-B111FCF0534B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{95948309-8A79-4351-B79A-DB9DED84C763}"/>
   </bookViews>
@@ -33,16 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="11">
-  <si>
-    <t>with anti.</t>
-  </si>
-  <si>
-    <t>without anti.</t>
-  </si>
-  <si>
-    <t>without bac.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="12">
   <si>
     <t>RC 195-5.1</t>
   </si>
@@ -66,6 +57,18 @@
   </si>
   <si>
     <t>repNo.</t>
+  </si>
+  <si>
+    <t>with anti</t>
+  </si>
+  <si>
+    <t>without anti</t>
+  </si>
+  <si>
+    <t>RC 159-5.1</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -496,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D6A5A2-E632-4639-B3E5-48226FB87103}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,35 +515,35 @@
     <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D2" s="5">
         <v>-3</v>
@@ -552,15 +555,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D3" s="5">
         <v>-3</v>
@@ -572,15 +575,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D4" s="5">
         <v>-3</v>
@@ -592,15 +595,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D5" s="5">
         <v>-3</v>
@@ -612,15 +615,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D6" s="7">
         <v>-4</v>
@@ -632,15 +635,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D7" s="7">
         <v>-4</v>
@@ -652,15 +655,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D8" s="7">
         <v>-4</v>
@@ -672,15 +675,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D9" s="7">
         <v>-4</v>
@@ -692,15 +695,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
         <v>-3</v>
@@ -712,15 +715,15 @@
         <v>343</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D11" s="5">
         <v>-3</v>
@@ -732,15 +735,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D12" s="5">
         <v>-3</v>
@@ -752,15 +755,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5">
         <v>-3</v>
@@ -772,15 +775,15 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D14" s="7">
         <v>0</v>
@@ -792,15 +795,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D15" s="7">
         <v>-4</v>
@@ -812,15 +815,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
         <v>-4</v>
@@ -832,15 +835,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D17" s="7">
         <v>-4</v>
@@ -852,15 +855,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7">
         <v>0</v>
@@ -872,15 +875,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
         <v>0</v>
@@ -893,15 +896,15 @@
       </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D20" s="7">
         <v>0</v>
@@ -913,15 +916,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D21" s="7">
         <v>0</v>
@@ -933,8 +936,405 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="9"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="9">
+        <v>-3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="9">
+        <v>-3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="9">
+        <v>-3</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="9">
+        <v>-3</v>
+      </c>
+      <c r="E25" s="3">
+        <v>4</v>
+      </c>
+      <c r="F25" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="9">
+        <v>-3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="9">
+        <v>-3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2</v>
+      </c>
+      <c r="F27" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="9">
+        <v>-3</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3</v>
+      </c>
+      <c r="F28" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="9">
+        <v>-3</v>
+      </c>
+      <c r="E29" s="3">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="9">
+        <v>-4</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="9">
+        <v>-4</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="9">
+        <v>-4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="9">
+        <v>-4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="9">
+        <v>-4</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="9">
+        <v>-4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="9">
+        <v>-4</v>
+      </c>
+      <c r="E36" s="3">
+        <v>3</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="9">
+        <v>-4</v>
+      </c>
+      <c r="E37" s="3">
+        <v>4</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>3</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="9">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RC159_5.1.xlsx
+++ b/RC159_5.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ron.Collins\Documents\Microsoft Excel\research data\RC 159\RC159-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2E9DAA-81BF-454B-81A4-B111FCF0534B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1176A1-6F6D-4579-9E72-7023D50D0BB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{95948309-8A79-4351-B79A-DB9DED84C763}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="10">
   <si>
     <t>RC 195-5.1</t>
   </si>
@@ -63,12 +63,6 @@
   </si>
   <si>
     <t>without anti</t>
-  </si>
-  <si>
-    <t>RC 159-5.1</t>
-  </si>
-  <si>
-    <t>b</t>
   </si>
 </sst>
 </file>
@@ -499,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D6A5A2-E632-4639-B3E5-48226FB87103}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,406 +930,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="9">
-        <v>-3</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="9">
-        <v>-3</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2</v>
-      </c>
-      <c r="F23" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="9">
-        <v>-3</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="9">
-        <v>-3</v>
-      </c>
-      <c r="E25" s="3">
-        <v>4</v>
-      </c>
-      <c r="F25" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="9">
-        <v>-3</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="9">
-        <v>-3</v>
-      </c>
-      <c r="E27" s="3">
-        <v>2</v>
-      </c>
-      <c r="F27" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="9">
-        <v>-3</v>
-      </c>
-      <c r="E28" s="3">
-        <v>3</v>
-      </c>
-      <c r="F28" s="3">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="9">
-        <v>-3</v>
-      </c>
-      <c r="E29" s="3">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="9">
-        <v>-4</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="9">
-        <v>-4</v>
-      </c>
-      <c r="E31" s="3">
-        <v>2</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="9">
-        <v>-4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="9">
-        <v>-4</v>
-      </c>
-      <c r="E33" s="3">
-        <v>4</v>
-      </c>
-      <c r="F33" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="9">
-        <v>-4</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="9">
-        <v>-4</v>
-      </c>
-      <c r="E35" s="3">
-        <v>2</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="9">
-        <v>-4</v>
-      </c>
-      <c r="E36" s="3">
-        <v>3</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="9">
-        <v>-4</v>
-      </c>
-      <c r="E37" s="3">
-        <v>4</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="9">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="9">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3">
-        <v>2</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="9">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
-        <v>3</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="9">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3">
-        <v>4</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
